--- a/Doc/SprintPlan16.xlsx
+++ b/Doc/SprintPlan16.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mella\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programacion\eclipse-workspace-tfg\proyectoGDV\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0694EA81-7835-458E-98F0-99C15721548C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB12DA69-6BFF-4DC0-843C-FF89D84F6112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
   <si>
     <t>Sprint Plan 16 - GDV</t>
   </si>
@@ -103,13 +103,19 @@
   </si>
   <si>
     <t>Carlos Velasco</t>
+  </si>
+  <si>
+    <t>Ultima sesion</t>
+  </si>
+  <si>
+    <t>Actualizar en la base de datos la fecha cada vez el usuario inicie sesion y mostrarlo en su perfil de usuario</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,6 +157,14 @@
       <name val="Arial Black"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -190,7 +204,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -198,23 +213,28 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -499,75 +519,75 @@
   <dimension ref="D5:O26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13:O13"/>
+      <selection activeCell="M9" sqref="M9:O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="6" max="6" width="28.85546875" customWidth="1"/>
-    <col min="12" max="12" width="50" customWidth="1"/>
+    <col min="12" max="12" width="80.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="4:15" ht="63.75" customHeight="1" x14ac:dyDescent="0.85">
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
     </row>
     <row r="6" spans="4:15" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="8" t="s">
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="8" t="s">
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="8" t="s">
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
     </row>
     <row r="7" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
     </row>
     <row r="8" spans="4:15" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
       <c r="G8" s="11" t="s">
         <v>10</v>
       </c>
@@ -584,298 +604,307 @@
       <c r="N8" s="11"/>
       <c r="O8" s="11"/>
     </row>
-    <row r="9" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
+    <row r="9" spans="4:15" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
     </row>
     <row r="10" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
     </row>
     <row r="11" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
     </row>
     <row r="12" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
     </row>
     <row r="13" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4" t="s">
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="3" t="s">
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3" t="s">
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
     </row>
     <row r="14" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
     </row>
     <row r="15" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
     </row>
     <row r="16" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
     </row>
     <row r="17" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
     </row>
     <row r="18" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="3" t="s">
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="3" t="s">
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
     </row>
     <row r="19" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="3" t="s">
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="3" t="s">
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
     </row>
     <row r="20" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
     </row>
     <row r="21" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
     </row>
     <row r="22" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
     </row>
     <row r="23" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="3" t="s">
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="3" t="s">
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
     </row>
     <row r="24" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="3" t="s">
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="3" t="s">
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12"/>
     </row>
     <row r="25" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
     </row>
     <row r="26" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="73">
+    <mergeCell ref="J25:L25"/>
     <mergeCell ref="M26:O26"/>
     <mergeCell ref="M19:O19"/>
     <mergeCell ref="M20:O20"/>
@@ -883,6 +912,8 @@
     <mergeCell ref="M23:O23"/>
     <mergeCell ref="M24:O24"/>
     <mergeCell ref="M25:O25"/>
+    <mergeCell ref="D22:O22"/>
+    <mergeCell ref="G25:I25"/>
     <mergeCell ref="J26:L26"/>
     <mergeCell ref="M8:O8"/>
     <mergeCell ref="M9:O9"/>
@@ -898,7 +929,7 @@
     <mergeCell ref="J21:L21"/>
     <mergeCell ref="J23:L23"/>
     <mergeCell ref="J24:L24"/>
-    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="D25:F25"/>
     <mergeCell ref="G26:I26"/>
     <mergeCell ref="J8:L8"/>
     <mergeCell ref="J9:L9"/>
@@ -914,7 +945,7 @@
     <mergeCell ref="G21:I21"/>
     <mergeCell ref="G23:I23"/>
     <mergeCell ref="G24:I24"/>
-    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="D13:F13"/>
     <mergeCell ref="D26:F26"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="G9:I9"/>
@@ -930,13 +961,6 @@
     <mergeCell ref="D21:F21"/>
     <mergeCell ref="D23:F23"/>
     <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="D22:O22"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D13:F13"/>
     <mergeCell ref="D14:F14"/>
     <mergeCell ref="D15:F15"/>
     <mergeCell ref="D16:F16"/>
@@ -949,6 +973,10 @@
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="G6:I6"/>
     <mergeCell ref="J6:L6"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D11:F11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/Doc/SprintPlan16.xlsx
+++ b/Doc/SprintPlan16.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programacion\eclipse-workspace-tfg\proyectoGDV\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB12DA69-6BFF-4DC0-843C-FF89D84F6112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE48B7D4-84D0-4E5A-8CE5-B8CAB0A69608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
   <si>
     <t>Sprint Plan 16 - GDV</t>
   </si>
@@ -109,6 +109,12 @@
   </si>
   <si>
     <t>Actualizar en la base de datos la fecha cada vez el usuario inicie sesion y mostrarlo en su perfil de usuario</t>
+  </si>
+  <si>
+    <t>Vista Creacion Viajes</t>
+  </si>
+  <si>
+    <t>Crear formulario de creacion de viajes</t>
   </si>
 </sst>
 </file>
@@ -230,10 +236,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -519,7 +525,7 @@
   <dimension ref="D5:O26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9:O9"/>
+      <selection activeCell="J14" sqref="J14:L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -620,11 +626,11 @@
       </c>
       <c r="K9" s="12"/>
       <c r="L9" s="12"/>
-      <c r="M9" s="14" t="s">
+      <c r="M9" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
     </row>
     <row r="10" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D10" s="1"/>
@@ -677,7 +683,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -693,18 +699,26 @@
       <c r="O13" s="12"/>
     </row>
     <row r="14" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
+      <c r="G14" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
+      <c r="J14" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
     </row>
     <row r="15" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D15" s="1"/>
@@ -777,7 +791,7 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="12" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="H19" s="12"/>
       <c r="I19" s="12"/>
@@ -861,7 +875,7 @@
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="12" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="H24" s="12"/>
       <c r="I24" s="12"/>
@@ -904,7 +918,6 @@
     </row>
   </sheetData>
   <mergeCells count="73">
-    <mergeCell ref="J25:L25"/>
     <mergeCell ref="M26:O26"/>
     <mergeCell ref="M19:O19"/>
     <mergeCell ref="M20:O20"/>
@@ -915,6 +928,11 @@
     <mergeCell ref="D22:O22"/>
     <mergeCell ref="G25:I25"/>
     <mergeCell ref="J26:L26"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="D25:F25"/>
     <mergeCell ref="M8:O8"/>
     <mergeCell ref="M9:O9"/>
     <mergeCell ref="M10:O10"/>
@@ -925,11 +943,6 @@
     <mergeCell ref="M16:O16"/>
     <mergeCell ref="M18:O18"/>
     <mergeCell ref="J19:L19"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="D25:F25"/>
     <mergeCell ref="G26:I26"/>
     <mergeCell ref="J8:L8"/>
     <mergeCell ref="J9:L9"/>
@@ -945,6 +958,7 @@
     <mergeCell ref="G21:I21"/>
     <mergeCell ref="G23:I23"/>
     <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J25:L25"/>
     <mergeCell ref="D13:F13"/>
     <mergeCell ref="D26:F26"/>
     <mergeCell ref="G8:I8"/>
